--- a/RACI Diagram.xlsx
+++ b/RACI Diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AI-project-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B575092D-36F1-4116-AC69-6CFE74EDD61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BACA00-78DB-4544-8E4F-7F8ED99EE910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="513" xr2:uid="{EAC57148-BD59-4768-B0D6-A0E0FD6810B4}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>R+A</t>
-  </si>
-  <si>
     <t>Administration</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Project visual design and presentation preparation</t>
   </si>
   <si>
-    <t>Project porposal</t>
-  </si>
-  <si>
     <t>Defining Resources for Data Collection</t>
   </si>
   <si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t>Lead Developer</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project proposal </t>
   </si>
 </sst>
 </file>
@@ -354,7 +354,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -382,6 +382,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -390,45 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +737,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -757,142 +754,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="22"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="11"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="23"/>
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="6"/>
@@ -900,21 +896,21 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="24.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>14</v>
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
@@ -922,130 +918,130 @@
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>7</v>
+      <c r="A14" s="14"/>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
